--- a/docs/excel/lll.xlsx
+++ b/docs/excel/lll.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPORTE\Desktop\tcc\docs\docx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPORTE\Desktop\tcc\docs\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="cronograma" sheetId="1" r:id="rId1"/>
+    <sheet name="orçamento" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>SERVIÇO</t>
   </si>
@@ -72,6 +73,75 @@
   </si>
   <si>
     <t>CHAT (DO EVENTO)</t>
+  </si>
+  <si>
+    <t>RAKINGS</t>
+  </si>
+  <si>
+    <t>SISTEMA DE NOTIFICAÇÃO</t>
+  </si>
+  <si>
+    <t>FRONTEND:</t>
+  </si>
+  <si>
+    <t>TELA DE LOGIN</t>
+  </si>
+  <si>
+    <t>TELA DE PERFIL</t>
+  </si>
+  <si>
+    <t>TELA DE INICIO</t>
+  </si>
+  <si>
+    <t>TELA DE PARTIDA</t>
+  </si>
+  <si>
+    <t>TELA DE RAKING</t>
+  </si>
+  <si>
+    <t>TELA DE RALATÓRIOS</t>
+  </si>
+  <si>
+    <t>TELA DE CHAT</t>
+  </si>
+  <si>
+    <t>:)</t>
+  </si>
+  <si>
+    <t>MOBILE:</t>
+  </si>
+  <si>
+    <t>SERVIÇOS</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>HORA</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>BACKEND</t>
+  </si>
+  <si>
+    <t>FRONTEND</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
+  </si>
+  <si>
+    <t>CRIPTOGRAFIA</t>
+  </si>
+  <si>
+    <t>TESTE</t>
+  </si>
+  <si>
+    <t>IMPLANTAÇÃO</t>
+  </si>
+  <si>
+    <t>VALOR POR PESSOA:</t>
   </si>
 </sst>
 </file>
@@ -94,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,8 +207,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -431,11 +507,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -534,6 +752,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -816,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL21"/>
+  <dimension ref="A1:AL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,19 +1309,19 @@
       <c r="A5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="30"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
@@ -1282,12 +1566,10 @@
       <c r="L16" s="22">
         <v>45055</v>
       </c>
-      <c r="M16" s="22">
-        <v>45056</v>
-      </c>
-      <c r="N16" s="22">
-        <v>45057</v>
-      </c>
+      <c r="M16" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1308,7 +1590,9 @@
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1316,15 +1600,17 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1334,46 +1620,582 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="A20" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="36"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="A21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="22">
+        <v>45056</v>
+      </c>
+      <c r="C21" s="22">
+        <v>45057</v>
+      </c>
+      <c r="D21" s="22">
+        <v>45058</v>
+      </c>
+      <c r="E21" s="22">
+        <v>45059</v>
+      </c>
+      <c r="F21" s="22">
+        <v>45060</v>
+      </c>
+      <c r="G21" s="22">
+        <v>45061</v>
+      </c>
+      <c r="H21" s="22">
+        <v>45062</v>
+      </c>
+      <c r="I21" s="22">
+        <v>45063</v>
+      </c>
+      <c r="J21" s="22">
+        <v>45064</v>
+      </c>
+      <c r="K21" s="22">
+        <v>45065</v>
+      </c>
+      <c r="L21" s="22">
+        <v>45066</v>
+      </c>
+      <c r="M21" s="22">
+        <v>45067</v>
+      </c>
+      <c r="N21" s="22">
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="22">
+        <v>45069</v>
+      </c>
+      <c r="C25" s="22">
+        <v>45070</v>
+      </c>
+      <c r="D25" s="22">
+        <v>45071</v>
+      </c>
+      <c r="E25" s="22">
+        <v>45072</v>
+      </c>
+      <c r="F25" s="22">
+        <v>45073</v>
+      </c>
+      <c r="G25" s="22">
+        <v>45074</v>
+      </c>
+      <c r="H25" s="22">
+        <v>45075</v>
+      </c>
+      <c r="I25" s="22">
+        <v>45076</v>
+      </c>
+      <c r="J25" s="22">
+        <v>45077</v>
+      </c>
+      <c r="K25" s="22">
+        <v>45078</v>
+      </c>
+      <c r="L25" s="22">
+        <v>45079</v>
+      </c>
+      <c r="M25" s="22">
+        <v>45080</v>
+      </c>
+      <c r="N25" s="22">
+        <v>45081</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="30"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B20:N20"/>
+    <mergeCell ref="M16:N16"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I10:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I12" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="41">
+        <v>15</v>
+      </c>
+      <c r="K12" s="53">
+        <v>12</v>
+      </c>
+      <c r="L12" s="46">
+        <f>PRODUCT(J12:K12)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I13" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="43">
+        <v>20</v>
+      </c>
+      <c r="K13" s="54">
+        <v>8</v>
+      </c>
+      <c r="L13" s="47">
+        <f t="shared" ref="L13:L20" si="0">PRODUCT(J13:K13)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I14" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="43">
+        <v>25</v>
+      </c>
+      <c r="K14" s="54">
+        <v>100</v>
+      </c>
+      <c r="L14" s="47">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="15" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I15" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="43">
+        <v>25</v>
+      </c>
+      <c r="K15" s="54">
+        <v>80</v>
+      </c>
+      <c r="L15" s="47">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I16" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="43">
+        <v>20</v>
+      </c>
+      <c r="K16" s="54">
+        <v>50</v>
+      </c>
+      <c r="L16" s="47">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I17" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="43">
+        <v>10</v>
+      </c>
+      <c r="K17" s="54">
+        <v>4</v>
+      </c>
+      <c r="L17" s="47">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I18" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="43">
+        <v>10</v>
+      </c>
+      <c r="K18" s="54">
+        <v>12</v>
+      </c>
+      <c r="L18" s="47">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="45">
+        <v>5</v>
+      </c>
+      <c r="K19" s="54">
+        <v>4</v>
+      </c>
+      <c r="L19" s="47">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="K20" s="55">
+        <f>SUM(K12:K19)</f>
+        <v>270</v>
+      </c>
+      <c r="L20" s="48">
+        <f>PRODUCT(2,SUM(L12:L19))</f>
+        <v>12040</v>
+      </c>
+    </row>
+    <row r="21" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="39"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="49">
+        <f>L20/2</f>
+        <v>6020</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I20:J20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
